--- a/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6849498-7278-47DE-8E88-54E4D1E146F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DA1905-0D21-4981-9A0F-55A0FDB3AFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C46A824-B12D-40B8-A859-9DDD2154B78E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2560693C-1F56-44F6-AA26-F56FD3A8EF07}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2007 (Tasa respuesta: 73,0%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>7,77%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>6,23%</t>
@@ -95,10 +95,10 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>92,23%</t>
   </si>
   <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>93,77%</t>
@@ -125,10 +125,10 @@
     <t>92,96%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>8,59%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,55 +197,49 @@
     <t>11,74%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>13,23%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>90,84%</t>
   </si>
   <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>86,77%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,97 +248,103 @@
     <t>4,69%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>10,1%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>89,9%</t>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -356,751 +356,745 @@
     <t>11,86%</t>
   </si>
   <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2016 (Tasa respuesta: 75,87%)</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2015 (Tasa respuesta: 75,87%)</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>8,47%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>91,53%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>95,63%</t>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>90,5%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC224FD-AA01-42C7-BFF2-DF181C652210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6302E4-45AA-4DEC-8D04-CC32258CF438}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1979,10 +1973,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +1991,13 @@
         <v>91141</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -2012,13 +2006,13 @@
         <v>80790</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -2027,13 +2021,13 @@
         <v>171932</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2083,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2101,13 +2095,13 @@
         <v>6952</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2119,10 +2113,10 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2131,13 +2125,13 @@
         <v>18636</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2146,13 @@
         <v>141142</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>203</v>
@@ -2170,10 +2164,10 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -2182,13 +2176,13 @@
         <v>279879</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>42151</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2271,13 +2265,13 @@
         <v>32961</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2286,13 +2280,13 @@
         <v>75112</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2301,13 @@
         <v>486399</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>696</v>
@@ -2419,7 +2413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5FBB5A-659D-447E-8C60-FBB9C34A093F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B7416B-CAC6-4CF6-8DBF-DA6F98FD6D31}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2701,10 +2695,10 @@
         <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2713,10 +2707,10 @@
         <v>14423</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>126</v>
@@ -2755,7 +2749,7 @@
         <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>210</v>
@@ -2764,13 +2758,13 @@
         <v>144921</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>454</v>
@@ -2996,7 +2990,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3044,7 +3038,7 @@
         <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3053,13 @@
         <v>124434</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>152</v>
@@ -3074,13 +3068,13 @@
         <v>106875</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>336</v>
@@ -3089,13 +3083,13 @@
         <v>231308</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3157,13 @@
         <v>49386</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3178,13 +3172,13 @@
         <v>48489</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -3193,13 +3187,13 @@
         <v>97876</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3208,13 @@
         <v>489395</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>619</v>
@@ -3229,13 +3223,13 @@
         <v>428476</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1320</v>
@@ -3244,13 +3238,13 @@
         <v>917870</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C72AE7A-E45A-4576-942C-40A4AAAA0CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368816DB-100B-4AB3-B601-A074050C02BD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3450,13 +3444,13 @@
         <v>6849</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3465,13 +3459,13 @@
         <v>8360</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3480,13 +3474,13 @@
         <v>15209</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3495,13 @@
         <v>90772</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>152</v>
@@ -3516,13 +3510,13 @@
         <v>94344</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>291</v>
@@ -3531,7 +3525,7 @@
         <v>185116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>205</v>
@@ -3608,10 +3602,10 @@
         <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3620,13 +3614,13 @@
         <v>16878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3635,13 +3629,13 @@
         <v>35072</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3650,13 @@
         <v>192398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>221</v>
@@ -3671,13 +3665,13 @@
         <v>138682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>506</v>
@@ -3686,13 +3680,13 @@
         <v>331080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3754,13 @@
         <v>4949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3775,13 +3769,13 @@
         <v>12871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3790,13 +3784,13 @@
         <v>17820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3805,13 @@
         <v>127222</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -3826,13 +3820,13 @@
         <v>131443</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>370</v>
@@ -3841,13 +3835,13 @@
         <v>258665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3897,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3918,10 +3912,10 @@
         <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3930,13 +3924,13 @@
         <v>6614</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3945,13 +3939,13 @@
         <v>14367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,10 +3963,10 @@
         <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
@@ -3981,13 +3975,13 @@
         <v>115492</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>326</v>
@@ -3996,13 +3990,13 @@
         <v>237743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4064,13 @@
         <v>37745</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -4085,13 +4079,13 @@
         <v>44723</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -4100,13 +4094,13 @@
         <v>82468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,19 +4115,19 @@
         <v>532642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>722</v>
       </c>
       <c r="I17" s="7">
-        <v>479962</v>
+        <v>479961</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>264</v>
@@ -4142,7 +4136,7 @@
         <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>1493</v>
@@ -4151,7 +4145,7 @@
         <v>1012604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>267</v>
@@ -4184,7 +4178,7 @@
         <v>789</v>
       </c>
       <c r="I18" s="7">
-        <v>524685</v>
+        <v>524684</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4233,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DBDE82-AEF2-47E7-94FA-4FEEA2CD511E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684BF44C-3AD3-4AE3-A931-9D3E85919B36}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,13 +4351,13 @@
         <v>3729</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4375,10 +4369,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4387,13 +4381,13 @@
         <v>8656</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4402,13 @@
         <v>54774</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4426,10 +4420,10 @@
         <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>209</v>
@@ -4438,10 +4432,10 @@
         <v>107215</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>283</v>
@@ -4810,7 +4804,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4822,13 +4816,13 @@
         <v>23183</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4837,13 +4831,13 @@
         <v>12376</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4852,13 +4846,13 @@
         <v>35558</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4867,13 @@
         <v>265411</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
@@ -4888,13 +4882,13 @@
         <v>243395</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
@@ -4903,13 +4897,13 @@
         <v>508807</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4971,13 @@
         <v>57591</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>338</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -4992,13 +4986,13 @@
         <v>39184</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -5007,13 +5001,13 @@
         <v>96775</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,28 +5022,28 @@
         <v>666424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
       </c>
       <c r="I17" s="7">
-        <v>607591</v>
+        <v>607590</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>1770</v>
@@ -5058,13 +5052,13 @@
         <v>1274014</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5085,7 @@
         <v>936</v>
       </c>
       <c r="I18" s="7">
-        <v>646775</v>
+        <v>646774</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DA1905-0D21-4981-9A0F-55A0FDB3AFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8E6127-1975-468E-94A5-7FEB254A1251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2560693C-1F56-44F6-AA26-F56FD3A8EF07}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EB817232-A1DC-4DE6-8843-D334EF1D6708}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2007 (Tasa respuesta: 73,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1027 +74,1033 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>7,04%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2016 (Tasa respuesta: 75,87%)</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2016 (Tasa respuesta: 75,87%)</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6302E4-45AA-4DEC-8D04-CC32258CF438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC69C483-D114-4AC1-BA1F-97AC01F2F601}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>6870</v>
+        <v>4895</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1639,10 +1645,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>4895</v>
+        <v>6870</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1675,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D5" s="7">
-        <v>81594</v>
+        <v>73664</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1690,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="I5" s="7">
-        <v>73664</v>
+        <v>81594</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1726,25 +1732,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>119</v>
+      </c>
+      <c r="D6" s="7">
+        <v>78559</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>132</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>88464</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>119</v>
-      </c>
-      <c r="I6" s="7">
-        <v>78559</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1779,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>16209</v>
+        <v>11155</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1794,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>11155</v>
+        <v>16209</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1830,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D8" s="7">
-        <v>172522</v>
+        <v>176091</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1845,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I8" s="7">
-        <v>176091</v>
+        <v>172522</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1881,25 +1887,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>279</v>
+      </c>
+      <c r="D9" s="7">
+        <v>187246</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>284</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>188731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>279</v>
-      </c>
-      <c r="I9" s="7">
-        <v>187246</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1934,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>12120</v>
+        <v>5227</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1949,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>5227</v>
+        <v>12120</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1973,10 +1979,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,34 +1991,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>118</v>
+      </c>
+      <c r="D11" s="7">
+        <v>80790</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>135</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>91141</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>118</v>
-      </c>
-      <c r="I11" s="7">
-        <v>80790</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -2021,13 +2027,13 @@
         <v>171932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,25 +2042,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>126</v>
+      </c>
+      <c r="D12" s="7">
+        <v>86017</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>153</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>103261</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>126</v>
-      </c>
-      <c r="I12" s="7">
-        <v>86017</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2083,40 +2089,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11684</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6952</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11684</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2125,10 +2131,10 @@
         <v>18636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>75</v>
@@ -2140,28 +2146,28 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>203</v>
+      </c>
+      <c r="D14" s="7">
+        <v>138737</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
         <v>212</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>141142</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>203</v>
-      </c>
-      <c r="I14" s="7">
-        <v>138737</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>79</v>
@@ -2176,13 +2182,13 @@
         <v>279879</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,25 +2197,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>220</v>
+      </c>
+      <c r="D15" s="7">
+        <v>150421</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>223</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>148094</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>220</v>
-      </c>
-      <c r="I15" s="7">
-        <v>150421</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2244,34 +2250,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>32961</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="7">
         <v>63</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>42151</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32961</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2280,13 +2286,13 @@
         <v>75112</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,34 +2301,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>696</v>
+      </c>
+      <c r="D17" s="7">
+        <v>469282</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="7">
         <v>729</v>
       </c>
-      <c r="D17" s="7">
-        <v>486399</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>486398</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="7">
-        <v>696</v>
-      </c>
-      <c r="I17" s="7">
-        <v>469282</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1425</v>
@@ -2331,13 +2337,13 @@
         <v>955680</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,25 +2352,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>744</v>
+      </c>
+      <c r="D18" s="7">
+        <v>502243</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>792</v>
       </c>
-      <c r="D18" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>744</v>
-      </c>
       <c r="I18" s="7">
-        <v>502243</v>
+        <v>528549</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2393,7 +2399,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B7416B-CAC6-4CF6-8DBF-DA6F98FD6D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832FF0B2-2C9F-4647-A051-1FE2306D3C96}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2531,34 +2537,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16395</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="7">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>13292</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="7">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16395</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2567,13 +2573,13 @@
         <v>29687</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,34 +2588,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>131</v>
+      </c>
+      <c r="D5" s="7">
+        <v>87726</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="7">
         <v>139</v>
       </c>
-      <c r="D5" s="7">
-        <v>98750</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>98751</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="7">
-        <v>131</v>
-      </c>
-      <c r="I5" s="7">
-        <v>87726</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>270</v>
@@ -2618,13 +2624,13 @@
         <v>186476</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,25 +2639,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>154</v>
+      </c>
+      <c r="D6" s="7">
+        <v>104121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>158</v>
       </c>
-      <c r="D6" s="7">
-        <v>112042</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>154</v>
-      </c>
       <c r="I6" s="7">
-        <v>104121</v>
+        <v>112043</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2686,34 +2692,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14423</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7">
         <v>24</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>18891</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="7">
-        <v>21</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14423</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -2722,13 +2728,13 @@
         <v>33314</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,25 +2743,25 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>210</v>
+      </c>
+      <c r="D8" s="7">
+        <v>144921</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="7">
         <v>244</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>174333</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="7">
-        <v>210</v>
-      </c>
-      <c r="I8" s="7">
-        <v>144921</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>132</v>
@@ -2788,25 +2794,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>231</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159344</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>268</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>193224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>231</v>
-      </c>
-      <c r="I9" s="7">
-        <v>159344</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2841,10 +2847,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>9936</v>
+        <v>9026</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>138</v>
@@ -2856,10 +2862,10 @@
         <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>9026</v>
+        <v>9936</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>141</v>
@@ -2883,7 +2889,7 @@
         <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,34 +2898,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>126</v>
+      </c>
+      <c r="D11" s="7">
+        <v>88954</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="7">
         <v>134</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>91876</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="7">
-        <v>126</v>
-      </c>
-      <c r="I11" s="7">
-        <v>88954</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>260</v>
@@ -2928,13 +2934,13 @@
         <v>180832</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,25 +2949,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7">
+        <v>97980</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>149</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>101812</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>138</v>
-      </c>
-      <c r="I12" s="7">
-        <v>97980</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2990,40 +2996,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8645</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>7268</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8645</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3032,13 +3038,13 @@
         <v>15913</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,34 +3053,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>152</v>
+      </c>
+      <c r="D14" s="7">
+        <v>106875</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="7">
         <v>184</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>124434</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="7">
-        <v>152</v>
-      </c>
-      <c r="I14" s="7">
-        <v>106875</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>336</v>
@@ -3083,10 +3089,10 @@
         <v>231308</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>171</v>
@@ -3098,25 +3104,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>164</v>
+      </c>
+      <c r="D15" s="7">
+        <v>115520</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>194</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>131702</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>164</v>
-      </c>
-      <c r="I15" s="7">
-        <v>115520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3154,7 +3160,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>49386</v>
+        <v>48489</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>172</v>
@@ -3169,7 +3175,7 @@
         <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>48489</v>
+        <v>49386</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>175</v>
@@ -3193,7 +3199,7 @@
         <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,34 +3208,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>619</v>
+      </c>
+      <c r="D17" s="7">
+        <v>428476</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="7">
         <v>701</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>489395</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="7">
-        <v>619</v>
-      </c>
-      <c r="I17" s="7">
-        <v>428476</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1320</v>
@@ -3238,13 +3244,13 @@
         <v>917870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,25 +3259,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>687</v>
+      </c>
+      <c r="D18" s="7">
+        <v>476965</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>769</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>538781</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>687</v>
-      </c>
-      <c r="I18" s="7">
-        <v>476965</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3300,7 +3306,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368816DB-100B-4AB3-B601-A074050C02BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FD2816-86DC-4D50-A24A-0BFC51A70688}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3337,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3438,34 +3444,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8360</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>6849</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8360</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3474,13 +3480,13 @@
         <v>15209</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,34 +3495,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>152</v>
+      </c>
+      <c r="D5" s="7">
+        <v>94344</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="7">
         <v>139</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>90772</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="7">
-        <v>152</v>
-      </c>
-      <c r="I5" s="7">
-        <v>94344</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>291</v>
@@ -3525,13 +3531,13 @@
         <v>185116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,25 +3546,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>165</v>
+      </c>
+      <c r="D6" s="7">
+        <v>102704</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>149</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>97621</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>165</v>
-      </c>
-      <c r="I6" s="7">
-        <v>102704</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3596,31 +3602,31 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>18194</v>
+        <v>16878</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>16878</v>
+        <v>18194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3629,13 +3635,13 @@
         <v>35072</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,34 +3650,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>221</v>
+      </c>
+      <c r="D8" s="7">
+        <v>138682</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="7">
         <v>285</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>192398</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="J8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="I8" s="7">
-        <v>138682</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>506</v>
@@ -3680,13 +3686,13 @@
         <v>331080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,25 +3701,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>247</v>
+      </c>
+      <c r="D9" s="7">
+        <v>155560</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>311</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>210592</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>247</v>
-      </c>
-      <c r="I9" s="7">
-        <v>155560</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3748,34 +3754,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12871</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4949</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12871</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3784,13 +3790,13 @@
         <v>17820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,34 +3805,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>189</v>
+      </c>
+      <c r="D11" s="7">
+        <v>131443</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="7">
         <v>181</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>127222</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="7">
-        <v>189</v>
-      </c>
-      <c r="I11" s="7">
-        <v>131443</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>370</v>
@@ -3835,13 +3841,13 @@
         <v>258665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,25 +3856,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>207</v>
+      </c>
+      <c r="D12" s="7">
+        <v>144314</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>188</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132171</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>207</v>
-      </c>
-      <c r="I12" s="7">
-        <v>144314</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3897,7 +3903,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3906,31 +3912,31 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>7753</v>
+        <v>6614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>6614</v>
+        <v>7753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3939,13 +3945,13 @@
         <v>14367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,34 +3960,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>160</v>
+      </c>
+      <c r="D14" s="7">
+        <v>115492</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="7">
         <v>166</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>122251</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H14" s="7">
-        <v>160</v>
-      </c>
-      <c r="I14" s="7">
-        <v>115492</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>326</v>
@@ -3990,13 +3996,13 @@
         <v>237743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,25 +4011,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>170</v>
+      </c>
+      <c r="D15" s="7">
+        <v>122106</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>176</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>130004</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>170</v>
-      </c>
-      <c r="I15" s="7">
-        <v>122106</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4058,34 +4064,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44723</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="7">
         <v>53</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>37745</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="7">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7">
-        <v>44723</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -4094,13 +4100,13 @@
         <v>82468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,34 +4115,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>722</v>
+      </c>
+      <c r="D17" s="7">
+        <v>479962</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="7">
         <v>771</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>532642</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="7">
-        <v>722</v>
-      </c>
-      <c r="I17" s="7">
-        <v>479961</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>1493</v>
@@ -4145,13 +4151,13 @@
         <v>1012604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,25 +4166,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>789</v>
+      </c>
+      <c r="D18" s="7">
+        <v>524685</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>824</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>570387</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>789</v>
-      </c>
-      <c r="I18" s="7">
-        <v>524684</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4207,7 +4213,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4227,7 +4233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684BF44C-3AD3-4AE3-A931-9D3E85919B36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4609D8-D80E-4876-A75C-57BA21BF2545}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4244,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4345,49 +4351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4954</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
-        <v>3729</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
       <c r="I4" s="7">
-        <v>4928</v>
+        <v>4117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>8656</v>
+        <v>9071</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,49 +4402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>99</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52557</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="7">
         <v>110</v>
       </c>
-      <c r="D5" s="7">
-        <v>54774</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H5" s="7">
-        <v>99</v>
-      </c>
       <c r="I5" s="7">
-        <v>52441</v>
+        <v>57327</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>209</v>
       </c>
       <c r="N5" s="7">
-        <v>107215</v>
+        <v>109884</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,25 +4453,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4480,7 +4486,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4500,49 +4506,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10056</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="7">
         <v>32</v>
       </c>
-      <c r="D7" s="7">
-        <v>21670</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
       <c r="I7" s="7">
-        <v>9959</v>
+        <v>23910</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>31629</v>
+        <v>33966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,49 +4557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>240</v>
+      </c>
+      <c r="D8" s="7">
+        <v>148822</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="7">
         <v>242</v>
       </c>
-      <c r="D8" s="7">
-        <v>152770</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8" s="7">
-        <v>240</v>
-      </c>
       <c r="I8" s="7">
-        <v>148377</v>
+        <v>157768</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>482</v>
       </c>
       <c r="N8" s="7">
-        <v>301147</v>
+        <v>306590</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,25 +4608,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>158878</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>274</v>
       </c>
-      <c r="D9" s="7">
-        <v>174440</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>158336</v>
+        <v>181678</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4635,7 +4641,7 @@
         <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>332776</v>
+        <v>340556</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4655,49 +4661,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11964</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
-        <v>9009</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
       <c r="I10" s="7">
-        <v>11922</v>
+        <v>9407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>20932</v>
+        <v>21371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,49 +4712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>215</v>
+      </c>
+      <c r="D11" s="7">
+        <v>160390</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="7">
         <v>232</v>
       </c>
-      <c r="D11" s="7">
-        <v>193469</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="7">
-        <v>215</v>
-      </c>
       <c r="I11" s="7">
-        <v>163377</v>
+        <v>203083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
       </c>
       <c r="N11" s="7">
-        <v>356845</v>
+        <v>363473</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,25 +4763,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7">
+        <v>172354</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>232</v>
-      </c>
       <c r="I12" s="7">
-        <v>175299</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4790,7 +4796,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377777</v>
+        <v>384844</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4804,55 +4810,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12463</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="7">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
-        <v>23183</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
       <c r="I13" s="7">
-        <v>12376</v>
+        <v>24652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>35558</v>
+        <v>37116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,49 +4867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>320</v>
+      </c>
+      <c r="D14" s="7">
+        <v>259084</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="7">
         <v>312</v>
       </c>
-      <c r="D14" s="7">
-        <v>265411</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H14" s="7">
-        <v>320</v>
-      </c>
       <c r="I14" s="7">
-        <v>243395</v>
+        <v>280023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>632</v>
       </c>
       <c r="N14" s="7">
-        <v>508807</v>
+        <v>539106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,25 +4918,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>338</v>
+      </c>
+      <c r="D15" s="7">
+        <v>271547</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>341</v>
       </c>
-      <c r="D15" s="7">
-        <v>288594</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>338</v>
-      </c>
       <c r="I15" s="7">
-        <v>255771</v>
+        <v>304675</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4945,7 +4951,7 @@
         <v>679</v>
       </c>
       <c r="N15" s="7">
-        <v>544365</v>
+        <v>576222</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4965,49 +4971,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="7">
         <v>78</v>
       </c>
-      <c r="D16" s="7">
-        <v>57591</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H16" s="7">
-        <v>62</v>
-      </c>
       <c r="I16" s="7">
-        <v>39184</v>
+        <v>62086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>96775</v>
+        <v>101524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,49 +5022,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>874</v>
+      </c>
+      <c r="D17" s="7">
+        <v>620851</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="7">
         <v>896</v>
       </c>
-      <c r="D17" s="7">
-        <v>666424</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H17" s="7">
-        <v>874</v>
-      </c>
       <c r="I17" s="7">
-        <v>607590</v>
+        <v>698202</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>1770</v>
       </c>
       <c r="N17" s="7">
-        <v>1274014</v>
+        <v>1319053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,25 +5073,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>936</v>
+      </c>
+      <c r="D18" s="7">
+        <v>660289</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>974</v>
       </c>
-      <c r="D18" s="7">
-        <v>724015</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>936</v>
-      </c>
       <c r="I18" s="7">
-        <v>646774</v>
+        <v>760288</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5100,7 +5106,7 @@
         <v>1910</v>
       </c>
       <c r="N18" s="7">
-        <v>1370789</v>
+        <v>1420577</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5114,7 +5120,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
